--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08885035236816</v>
+        <v>1.384889</v>
       </c>
       <c r="H2">
-        <v>1.08885035236816</v>
+        <v>4.154667</v>
       </c>
       <c r="I2">
-        <v>0.0188013880813205</v>
+        <v>0.02269344589565627</v>
       </c>
       <c r="J2">
-        <v>0.0188013880813205</v>
+        <v>0.0260653413805133</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N2">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O2">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P2">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q2">
-        <v>29.67090458568339</v>
+        <v>38.33488205579634</v>
       </c>
       <c r="R2">
-        <v>29.67090458568339</v>
+        <v>345.013938502167</v>
       </c>
       <c r="S2">
-        <v>0.002915666587702562</v>
+        <v>0.003312376695914869</v>
       </c>
       <c r="T2">
-        <v>0.002915666587702562</v>
+        <v>0.003844734148027886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08885035236816</v>
+        <v>1.384889</v>
       </c>
       <c r="H3">
-        <v>1.08885035236816</v>
+        <v>4.154667</v>
       </c>
       <c r="I3">
-        <v>0.0188013880813205</v>
+        <v>0.02269344589565627</v>
       </c>
       <c r="J3">
-        <v>0.0188013880813205</v>
+        <v>0.0260653413805133</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N3">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P3">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q3">
-        <v>27.65948304051725</v>
+        <v>39.98726282777599</v>
       </c>
       <c r="R3">
-        <v>27.65948304051725</v>
+        <v>359.885365449984</v>
       </c>
       <c r="S3">
-        <v>0.002718010510986393</v>
+        <v>0.003455152863946815</v>
       </c>
       <c r="T3">
-        <v>0.002718010510986393</v>
+        <v>0.004010456968573627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08885035236816</v>
+        <v>1.384889</v>
       </c>
       <c r="H4">
-        <v>1.08885035236816</v>
+        <v>4.154667</v>
       </c>
       <c r="I4">
-        <v>0.0188013880813205</v>
+        <v>0.02269344589565627</v>
       </c>
       <c r="J4">
-        <v>0.0188013880813205</v>
+        <v>0.0260653413805133</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N4">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O4">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P4">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q4">
-        <v>63.59441604088187</v>
+        <v>92.90252032774168</v>
       </c>
       <c r="R4">
-        <v>63.59441604088187</v>
+        <v>836.1226829496751</v>
       </c>
       <c r="S4">
-        <v>0.006249223493655223</v>
+        <v>0.008027366378158441</v>
       </c>
       <c r="T4">
-        <v>0.006249223493655223</v>
+        <v>0.009317505968116467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08885035236816</v>
+        <v>1.384889</v>
       </c>
       <c r="H5">
-        <v>1.08885035236816</v>
+        <v>4.154667</v>
       </c>
       <c r="I5">
-        <v>0.0188013880813205</v>
+        <v>0.02269344589565627</v>
       </c>
       <c r="J5">
-        <v>0.0188013880813205</v>
+        <v>0.0260653413805133</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N5">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O5">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P5">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q5">
-        <v>64.38313352477807</v>
+        <v>83.17559502052534</v>
       </c>
       <c r="R5">
-        <v>64.38313352477807</v>
+        <v>748.580355184728</v>
       </c>
       <c r="S5">
-        <v>0.006326728283180333</v>
+        <v>0.007186898402709007</v>
       </c>
       <c r="T5">
-        <v>0.006326728283180333</v>
+        <v>0.008341959941144495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08885035236816</v>
+        <v>1.384889</v>
       </c>
       <c r="H6">
-        <v>1.08885035236816</v>
+        <v>4.154667</v>
       </c>
       <c r="I6">
-        <v>0.0188013880813205</v>
+        <v>0.02269344589565627</v>
       </c>
       <c r="J6">
-        <v>0.0188013880813205</v>
+        <v>0.0260653413805133</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N6">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O6">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P6">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q6">
-        <v>6.021961155273189</v>
+        <v>8.236103839458</v>
       </c>
       <c r="R6">
-        <v>6.021961155273189</v>
+        <v>49.416623036748</v>
       </c>
       <c r="S6">
-        <v>0.0005917592057959953</v>
+        <v>0.0007116515549271315</v>
       </c>
       <c r="T6">
-        <v>0.0005917592057959953</v>
+        <v>0.0005506843546508286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.7672240266976</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H7">
-        <v>33.7672240266976</v>
+        <v>107.768389</v>
       </c>
       <c r="I7">
-        <v>0.5830651401949221</v>
+        <v>0.5886479241377318</v>
       </c>
       <c r="J7">
-        <v>0.5830651401949221</v>
+        <v>0.6761119120528685</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N7">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O7">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P7">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q7">
-        <v>920.1485585603943</v>
+        <v>994.3729501445432</v>
       </c>
       <c r="R7">
-        <v>920.1485585603943</v>
+        <v>8949.356551300889</v>
       </c>
       <c r="S7">
-        <v>0.09042010836473538</v>
+        <v>0.08592012314823023</v>
       </c>
       <c r="T7">
-        <v>0.09042010836473538</v>
+        <v>0.09972900481946033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.7672240266976</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H8">
-        <v>33.7672240266976</v>
+        <v>107.768389</v>
       </c>
       <c r="I8">
-        <v>0.5830651401949221</v>
+        <v>0.5886479241377318</v>
       </c>
       <c r="J8">
-        <v>0.5830651401949221</v>
+        <v>0.6761119120528685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N8">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P8">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q8">
-        <v>857.7707287878912</v>
+        <v>1037.234246563925</v>
       </c>
       <c r="R8">
-        <v>857.7707287878912</v>
+        <v>9335.108219075328</v>
       </c>
       <c r="S8">
-        <v>0.08429043498198177</v>
+        <v>0.08962361072410482</v>
       </c>
       <c r="T8">
-        <v>0.08429043498198177</v>
+        <v>0.104027708275297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.7672240266976</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H9">
-        <v>33.7672240266976</v>
+        <v>107.768389</v>
       </c>
       <c r="I9">
-        <v>0.5830651401949221</v>
+        <v>0.5886479241377318</v>
       </c>
       <c r="J9">
-        <v>0.5830651401949221</v>
+        <v>0.6761119120528685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N9">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O9">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P9">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q9">
-        <v>1972.178168128463</v>
+        <v>2409.809245785636</v>
       </c>
       <c r="R9">
-        <v>1972.178168128463</v>
+        <v>21688.28321207073</v>
       </c>
       <c r="S9">
-        <v>0.1937997533308493</v>
+        <v>0.2082227871660713</v>
       </c>
       <c r="T9">
-        <v>0.1937997533308493</v>
+        <v>0.2416878675671955</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.7672240266976</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H10">
-        <v>33.7672240266976</v>
+        <v>107.768389</v>
       </c>
       <c r="I10">
-        <v>0.5830651401949221</v>
+        <v>0.5886479241377318</v>
       </c>
       <c r="J10">
-        <v>0.5830651401949221</v>
+        <v>0.6761119120528685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N10">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O10">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P10">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q10">
-        <v>1996.637727621255</v>
+        <v>2157.501402513953</v>
       </c>
       <c r="R10">
-        <v>1996.637727621255</v>
+        <v>19417.51262262557</v>
       </c>
       <c r="S10">
-        <v>0.1962033174067982</v>
+        <v>0.1864217909080614</v>
       </c>
       <c r="T10">
-        <v>0.1962033174067982</v>
+        <v>0.2163830660699587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.7672240266976</v>
+        <v>35.92279633333333</v>
       </c>
       <c r="H11">
-        <v>33.7672240266976</v>
+        <v>107.768389</v>
       </c>
       <c r="I11">
-        <v>0.5830651401949221</v>
+        <v>0.5886479241377318</v>
       </c>
       <c r="J11">
-        <v>0.5830651401949221</v>
+        <v>0.6761119120528685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N11">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O11">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P11">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q11">
-        <v>186.751936083707</v>
+        <v>213.637252375486</v>
       </c>
       <c r="R11">
-        <v>186.751936083707</v>
+        <v>1281.823514252916</v>
       </c>
       <c r="S11">
-        <v>0.0183515261105575</v>
+        <v>0.01845961219126394</v>
       </c>
       <c r="T11">
-        <v>0.0183515261105575</v>
+        <v>0.014284265320957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>23.0572215785849</v>
+        <v>0.034729</v>
       </c>
       <c r="H12">
-        <v>23.0572215785849</v>
+        <v>0.104187</v>
       </c>
       <c r="I12">
-        <v>0.3981334717237573</v>
+        <v>0.0005690858130220159</v>
       </c>
       <c r="J12">
-        <v>0.3981334717237573</v>
+        <v>0.0006536431734267847</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N12">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O12">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P12">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q12">
-        <v>628.3036231574239</v>
+        <v>0.9613276724096668</v>
       </c>
       <c r="R12">
-        <v>628.3036231574239</v>
+        <v>8.651949051687</v>
       </c>
       <c r="S12">
-        <v>0.06174142334226272</v>
+        <v>8.306480178009031E-05</v>
       </c>
       <c r="T12">
-        <v>0.06174142334226272</v>
+        <v>9.641478286480753E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>23.0572215785849</v>
+        <v>0.034729</v>
       </c>
       <c r="H13">
-        <v>23.0572215785849</v>
+        <v>0.104187</v>
       </c>
       <c r="I13">
-        <v>0.3981334717237573</v>
+        <v>0.0005690858130220159</v>
       </c>
       <c r="J13">
-        <v>0.3981334717237573</v>
+        <v>0.0006536431734267847</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N13">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P13">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q13">
-        <v>585.710265719492</v>
+        <v>1.002764590336</v>
       </c>
       <c r="R13">
-        <v>585.710265719492</v>
+        <v>9.024881313024</v>
       </c>
       <c r="S13">
-        <v>0.05755590790638441</v>
+        <v>8.66452140294341E-05</v>
       </c>
       <c r="T13">
-        <v>0.05755590790638441</v>
+        <v>0.0001005706306148677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>23.0572215785849</v>
+        <v>0.034729</v>
       </c>
       <c r="H14">
-        <v>23.0572215785849</v>
+        <v>0.104187</v>
       </c>
       <c r="I14">
-        <v>0.3981334717237573</v>
+        <v>0.0005690858130220159</v>
       </c>
       <c r="J14">
-        <v>0.3981334717237573</v>
+        <v>0.0006536431734267847</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N14">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O14">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P14">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q14">
-        <v>1346.659381269632</v>
+        <v>2.329725796408334</v>
       </c>
       <c r="R14">
-        <v>1346.659381269632</v>
+        <v>20.967532167675</v>
       </c>
       <c r="S14">
-        <v>0.1323319871035754</v>
+        <v>0.0002013030697384878</v>
       </c>
       <c r="T14">
-        <v>0.1323319871035754</v>
+        <v>0.0002336560293039491</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>23.0572215785849</v>
+        <v>0.034729</v>
       </c>
       <c r="H15">
-        <v>23.0572215785849</v>
+        <v>0.104187</v>
       </c>
       <c r="I15">
-        <v>0.3981334717237573</v>
+        <v>0.0005690858130220159</v>
       </c>
       <c r="J15">
-        <v>0.3981334717237573</v>
+        <v>0.0006536431734267847</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N15">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O15">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P15">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q15">
-        <v>1363.361064608896</v>
+        <v>2.085802717378667</v>
       </c>
       <c r="R15">
-        <v>1363.361064608896</v>
+        <v>18.772224456408</v>
       </c>
       <c r="S15">
-        <v>0.1339732090599217</v>
+        <v>0.0001802265702360847</v>
       </c>
       <c r="T15">
-        <v>0.1339732090599217</v>
+        <v>0.0002091921639900433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.034729</v>
+      </c>
+      <c r="H16">
+        <v>0.104187</v>
+      </c>
+      <c r="I16">
+        <v>0.0005690858130220159</v>
+      </c>
+      <c r="J16">
+        <v>0.0006536431734267847</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.947122</v>
+      </c>
+      <c r="N16">
+        <v>11.894244</v>
+      </c>
+      <c r="O16">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P16">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q16">
+        <v>0.206537599938</v>
+      </c>
+      <c r="R16">
+        <v>1.239225599628</v>
+      </c>
+      <c r="S16">
+        <v>1.784615723791896E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.380956665311706E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>23.6835315</v>
+      </c>
+      <c r="H17">
+        <v>47.367063</v>
+      </c>
+      <c r="I17">
+        <v>0.3880895441535899</v>
+      </c>
+      <c r="J17">
+        <v>0.2971691033931915</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.68083366666667</v>
+      </c>
+      <c r="N17">
+        <v>83.042501</v>
+      </c>
+      <c r="O17">
+        <v>0.1459618213622149</v>
+      </c>
+      <c r="P17">
+        <v>0.1475036943464798</v>
+      </c>
+      <c r="Q17">
+        <v>655.5798960907606</v>
+      </c>
+      <c r="R17">
+        <v>3933.479376544563</v>
+      </c>
+      <c r="S17">
+        <v>0.05664625671628969</v>
+      </c>
+      <c r="T17">
+        <v>0.04383354059612676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.6835315</v>
+      </c>
+      <c r="H18">
+        <v>47.367063</v>
+      </c>
+      <c r="I18">
+        <v>0.3880895441535899</v>
+      </c>
+      <c r="J18">
+        <v>0.2971691033931915</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>28.873984</v>
+      </c>
+      <c r="N18">
+        <v>86.62195199999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1522533369252733</v>
+      </c>
+      <c r="P18">
+        <v>0.1538616705619625</v>
+      </c>
+      <c r="Q18">
+        <v>683.837909594496</v>
+      </c>
+      <c r="R18">
+        <v>4103.027457566975</v>
+      </c>
+      <c r="S18">
+        <v>0.05908792812319227</v>
+      </c>
+      <c r="T18">
+        <v>0.045722934687477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>23.0572215785849</v>
-      </c>
-      <c r="H16">
-        <v>23.0572215785849</v>
-      </c>
-      <c r="I16">
-        <v>0.3981334717237573</v>
-      </c>
-      <c r="J16">
-        <v>0.3981334717237573</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="N16">
-        <v>5.53056822011943</v>
-      </c>
-      <c r="O16">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="P16">
-        <v>0.03147422962796657</v>
-      </c>
-      <c r="Q16">
-        <v>127.5195369067736</v>
-      </c>
-      <c r="R16">
-        <v>127.5195369067736</v>
-      </c>
-      <c r="S16">
-        <v>0.01253094431161307</v>
-      </c>
-      <c r="T16">
-        <v>0.01253094431161307</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.6835315</v>
+      </c>
+      <c r="H19">
+        <v>47.367063</v>
+      </c>
+      <c r="I19">
+        <v>0.3880895441535899</v>
+      </c>
+      <c r="J19">
+        <v>0.2971691033931915</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.08300833333334</v>
+      </c>
+      <c r="N19">
+        <v>201.249025</v>
+      </c>
+      <c r="O19">
+        <v>0.3537306064080358</v>
+      </c>
+      <c r="P19">
+        <v>0.3574672524750558</v>
+      </c>
+      <c r="Q19">
+        <v>1588.762540977263</v>
+      </c>
+      <c r="R19">
+        <v>9532.575245863576</v>
+      </c>
+      <c r="S19">
+        <v>0.1372791497940675</v>
+      </c>
+      <c r="T19">
+        <v>0.1062282229104399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.6835315</v>
+      </c>
+      <c r="H20">
+        <v>47.367063</v>
+      </c>
+      <c r="I20">
+        <v>0.3880895441535899</v>
+      </c>
+      <c r="J20">
+        <v>0.2971691033931915</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.05939466666666</v>
+      </c>
+      <c r="N20">
+        <v>180.178184</v>
+      </c>
+      <c r="O20">
+        <v>0.3166948922501296</v>
+      </c>
+      <c r="P20">
+        <v>0.3200403102098261</v>
+      </c>
+      <c r="Q20">
+        <v>1422.418565458932</v>
+      </c>
+      <c r="R20">
+        <v>8534.511392753591</v>
+      </c>
+      <c r="S20">
+        <v>0.1229059763691231</v>
+      </c>
+      <c r="T20">
+        <v>0.09510609203473289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.6835315</v>
+      </c>
+      <c r="H21">
+        <v>47.367063</v>
+      </c>
+      <c r="I21">
+        <v>0.3880895441535899</v>
+      </c>
+      <c r="J21">
+        <v>0.2971691033931915</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.947122</v>
+      </c>
+      <c r="N21">
+        <v>11.894244</v>
+      </c>
+      <c r="O21">
+        <v>0.03135934305434628</v>
+      </c>
+      <c r="P21">
+        <v>0.02112707240667584</v>
+      </c>
+      <c r="Q21">
+        <v>140.848851221343</v>
+      </c>
+      <c r="R21">
+        <v>563.395404885372</v>
+      </c>
+      <c r="S21">
+        <v>0.01217023315091729</v>
+      </c>
+      <c r="T21">
+        <v>0.006278313164414896</v>
       </c>
     </row>
   </sheetData>
